--- a/src/main/resources/poi/report_sales_debtdue.xlsx
+++ b/src/main/resources/poi/report_sales_debtdue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E9A4CC-2A43-4CE8-97EA-9B92E7088091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549E541-C5D3-48C9-B803-47825E806FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4176" yWindow="3888" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,12 +194,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,13 +530,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -549,16 +551,16 @@
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -584,16 +586,16 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
